--- a/meta/en/10-4-1.xlsx
+++ b/meta/en/10-4-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="Workbook________" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>(0312) 32 46 95</t>
   </si>
   <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>Labour share of Gross Domestic Product (GDP) is the total compensation of employees given as a percent of GDP, which is a measure of total output. It provides information about the relative share of output which is paid as compensation to employees as compared with the share paid to capital in the production process for a given reference period.</t>
   </si>
   <si>
@@ -162,17 +159,28 @@
 The UN System of National Accounts – UN SNA-1993 and SNA 2008:
 Recommendations of the CIS-STAT Committee on the Generation of Income Account. Moscow, 1995: European System of Integrated Economic Accounts 1995.</t>
   </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,26 +247,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -570,7 +582,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +602,7 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -653,7 +665,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -667,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -675,7 +687,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -683,7 +695,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -697,7 +709,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -705,7 +717,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -719,7 +731,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -727,7 +739,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -735,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -749,7 +761,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -757,7 +769,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -765,7 +777,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -773,7 +785,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
